--- a/12/2/Índices de bolsas de comercio 1990 a 2021 - Mensual.xlsx
+++ b/12/2/Índices de bolsas de comercio 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
   <si>
     <t>Serie</t>
   </si>
@@ -1211,6 +1211,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T380"/>
+  <dimension ref="A1:T381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23729,6 +23732,12 @@
       <c r="A380" t="s">
         <v>398</v>
       </c>
+      <c r="B380">
+        <v>34798.8</v>
+      </c>
+      <c r="C380">
+        <v>14639.1</v>
+      </c>
       <c r="D380">
         <v>7047.6</v>
       </c>
@@ -23764,6 +23773,83 @@
       </c>
       <c r="O380">
         <v>1371</v>
+      </c>
+      <c r="P380">
+        <v>64364.2</v>
+      </c>
+      <c r="Q380">
+        <v>126030.9</v>
+      </c>
+      <c r="R380">
+        <v>1266.7</v>
+      </c>
+      <c r="S380">
+        <v>50185</v>
+      </c>
+      <c r="T380">
+        <v>18608.4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:20">
+      <c r="A381" t="s">
+        <v>399</v>
+      </c>
+      <c r="B381">
+        <v>35244</v>
+      </c>
+      <c r="C381">
+        <v>14856.5</v>
+      </c>
+      <c r="D381">
+        <v>7138.5</v>
+      </c>
+      <c r="E381">
+        <v>27692.7</v>
+      </c>
+      <c r="F381">
+        <v>6746.1</v>
+      </c>
+      <c r="G381">
+        <v>15816.1</v>
+      </c>
+      <c r="H381">
+        <v>3182.5</v>
+      </c>
+      <c r="I381">
+        <v>4902.5</v>
+      </c>
+      <c r="J381">
+        <v>1524.3</v>
+      </c>
+      <c r="K381">
+        <v>68898.60000000001</v>
+      </c>
+      <c r="L381">
+        <v>3866.5</v>
+      </c>
+      <c r="M381">
+        <v>1561.2</v>
+      </c>
+      <c r="N381">
+        <v>17131</v>
+      </c>
+      <c r="O381">
+        <v>1441.4</v>
+      </c>
+      <c r="P381">
+        <v>69098.89999999999</v>
+      </c>
+      <c r="Q381">
+        <v>120312.6</v>
+      </c>
+      <c r="R381">
+        <v>1284</v>
+      </c>
+      <c r="S381">
+        <v>51649.3</v>
+      </c>
+      <c r="T381">
+        <v>16893.1</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índices de bolsas de comercio 1990 a 2021 - Mensual.xlsx
+++ b/12/2/Índices de bolsas de comercio 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="401">
   <si>
     <t>Serie</t>
   </si>
@@ -1214,6 +1214,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T381"/>
+  <dimension ref="A1:T382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23852,6 +23855,68 @@
         <v>16893.1</v>
       </c>
     </row>
+    <row r="382" spans="1:20">
+      <c r="A382" t="s">
+        <v>400</v>
+      </c>
+      <c r="B382">
+        <v>34688.4</v>
+      </c>
+      <c r="C382">
+        <v>15023.5</v>
+      </c>
+      <c r="D382">
+        <v>7065.1</v>
+      </c>
+      <c r="E382">
+        <v>29893.6</v>
+      </c>
+      <c r="F382">
+        <v>6637.7</v>
+      </c>
+      <c r="G382">
+        <v>15584.5</v>
+      </c>
+      <c r="H382">
+        <v>3141.7</v>
+      </c>
+      <c r="I382">
+        <v>4894.5</v>
+      </c>
+      <c r="J382">
+        <v>1558.5</v>
+      </c>
+      <c r="K382">
+        <v>70865.3</v>
+      </c>
+      <c r="L382">
+        <v>4028.3</v>
+      </c>
+      <c r="M382">
+        <v>1628.2</v>
+      </c>
+      <c r="N382">
+        <v>17281.2</v>
+      </c>
+      <c r="O382">
+        <v>1425.3</v>
+      </c>
+      <c r="P382">
+        <v>76501.89999999999</v>
+      </c>
+      <c r="Q382">
+        <v>113872.9</v>
+      </c>
+      <c r="R382">
+        <v>1324.6</v>
+      </c>
+      <c r="S382">
+        <v>51517.1</v>
+      </c>
+      <c r="T382">
+        <v>17941.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/2/Índices de bolsas de comercio 1990 a 2021 - Mensual.xlsx
+++ b/12/2/Índices de bolsas de comercio 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="402">
   <si>
     <t>Serie</t>
   </si>
@@ -1217,6 +1217,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T382"/>
+  <dimension ref="A1:T383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23917,6 +23920,62 @@
         <v>17941.8</v>
       </c>
     </row>
+    <row r="383" spans="1:20">
+      <c r="A383" t="s">
+        <v>401</v>
+      </c>
+      <c r="B383">
+        <v>35055.5</v>
+      </c>
+      <c r="C383">
+        <v>14879</v>
+      </c>
+      <c r="D383">
+        <v>7163.1</v>
+      </c>
+      <c r="E383">
+        <v>28586.2</v>
+      </c>
+      <c r="F383">
+        <v>6651.9</v>
+      </c>
+      <c r="G383">
+        <v>15401.9</v>
+      </c>
+      <c r="H383">
+        <v>2989.9</v>
+      </c>
+      <c r="I383">
+        <v>4921.6</v>
+      </c>
+      <c r="J383">
+        <v>1574.2</v>
+      </c>
+      <c r="K383">
+        <v>73441.39999999999</v>
+      </c>
+      <c r="L383">
+        <v>4221.4</v>
+      </c>
+      <c r="M383">
+        <v>1631.2</v>
+      </c>
+      <c r="N383">
+        <v>16723.6</v>
+      </c>
+      <c r="O383">
+        <v>1434.1</v>
+      </c>
+      <c r="P383">
+        <v>82528.5</v>
+      </c>
+      <c r="Q383">
+        <v>110091</v>
+      </c>
+      <c r="S383">
+        <v>51705.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/2/Índices de bolsas de comercio 1990 a 2021 - Mensual.xlsx
+++ b/12/2/Índices de bolsas de comercio 1990 a 2021 - Mensual.xlsx
@@ -23972,8 +23972,14 @@
       <c r="Q383">
         <v>110091</v>
       </c>
+      <c r="R383">
+        <v>1400.2</v>
+      </c>
       <c r="S383">
         <v>51705.4</v>
+      </c>
+      <c r="T383">
+        <v>20028</v>
       </c>
     </row>
   </sheetData>
